--- a/biology/Médecine/Carl_August_Wilhelm_Berends/Carl_August_Wilhelm_Berends.xlsx
+++ b/biology/Médecine/Carl_August_Wilhelm_Berends/Carl_August_Wilhelm_Berends.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl August Wilhelm Berends, né le 19 avril 1759 à Anklam en province de Poméranie, et mort le 1er décembre 1826, est un médecin prussien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à l'université brandebourgeoise de Francfort, où, en 1788, il  devient un professeur de médecine. En 1811, il déménage à l'Université de Breslau, en raison de la fermeture de l'Université Viadrina à Francfort, ce qui entraîne le déménagement d'une grande partie de son corps professoral à Breslau. En 1815, il est nommé professeur de médecine à l'Université de Berlin et directeur de l'hôpital de la Charité à Berlin
 En 1789 il publie Über den Unterricht junger Ärzte am Krankenbett (Formation des jeunes médecins au chevet du patient), dans lequel il a décrit ses expériences au Thielschen Krankenhaus à Francfort. Peu après sa mort en 1826, son ancien étudiant Karl Sundelin publie les conférences de Berends sur la médecine pratique ("Vorlesungen über die praktische Arzneiwissenschaft").
